--- a/medicine/Mort/Archéothanatologie/Archéothanatologie.xlsx
+++ b/medicine/Mort/Archéothanatologie/Archéothanatologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arch%C3%A9othanatologie</t>
+          <t>Archéothanatologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « archéothanatologie » a été proposé par Bruno Boulestin et Henri Duday lors d'une table ronde qui s'est tenue à Sens en 1998 et dont les actes ont été publiés en 2005. Il désigne l’étude des différents aspects biologiques, sociologiques et culturels de la mort dans les populations anciennes.
 Branche de la paléoanthropologie, constituant plus ou moins l'équivalent de l'« anthropology of death » des auteurs de langue anglaise, l'archéothanatologie fait appel aux données du terrain (fouilles archéologiques), à l'anthropologie biologique, à l'anthropologie sociale et à l'ethnologie. Elle étudie les processus anté-dépositionnels, dépositionnels et post-dépositionnels
